--- a/PLR_do/bubble_data/bubble_data4.xlsx
+++ b/PLR_do/bubble_data/bubble_data4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635BEBD-2388-4449-87FA-490FE4387009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A4B9A-F5E7-448B-92DF-60A60FB1E482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -530,16 +530,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.99199999999999999</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C2" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D2" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E27" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
         <v>1</v>
       </c>
     </row>
@@ -548,16 +548,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.99199999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="C3" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="2">
-        <v>0.629</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E27" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
         <v>2</v>
       </c>
     </row>
@@ -566,17 +566,17 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.93899999999999995</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>0.29799999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="D4" s="2">
-        <v>0.52900000000000003</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -584,17 +584,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.90800000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="2">
-        <v>0.27</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.495</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -602,17 +602,17 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.98899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="C6" s="2">
-        <v>0.41</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D6" s="2">
-        <v>0.63700000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -620,17 +620,17 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.95499999999999996</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="C7" s="2">
-        <v>0.28699999999999998</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.52400000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -638,13 +638,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.89</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D8" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -656,13 +656,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.85099999999999998</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="C9" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="D9" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -674,13 +674,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.83499999999999996</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>0.23300000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.441</v>
+        <v>0.309</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -692,13 +692,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.84799999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="C11" s="2">
-        <v>0.23899999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="D11" s="2">
-        <v>0.45</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -710,17 +710,17 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.94599999999999995</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="C12" s="2">
-        <v>0.33700000000000002</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0.56399999999999995</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -728,13 +728,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>0.81899999999999995</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="D13" s="2">
-        <v>0.44</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -746,13 +746,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>0.629</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23699999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -764,13 +764,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>0.49099999999999999</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C15" s="2">
-        <v>0.22500000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>0.33200000000000002</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -782,13 +782,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.67100000000000004</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>0.23499999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.253</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -800,13 +800,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>0.81699999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C17" s="2">
-        <v>0.24099999999999999</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>0.623</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22500000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.374</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -836,17 +836,17 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>0.97299999999999998</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C19" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="D19" s="2">
-        <v>0.68300000000000005</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -854,17 +854,17 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>0.93700000000000006</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C20" s="2">
-        <v>0.34300000000000003</v>
+        <v>0.219</v>
       </c>
       <c r="D20" s="2">
-        <v>0.56699999999999995</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -872,17 +872,17 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C21" s="2">
-        <v>0.28499999999999998</v>
+        <v>0.155</v>
       </c>
       <c r="D21" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -890,13 +890,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>0.83399999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C22" s="2">
-        <v>0.253</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.314</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -908,13 +908,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C23" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.48599999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -926,13 +926,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C24" s="2">
-        <v>0.26600000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="D24" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -944,13 +944,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>0.66500000000000004</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>0.23100000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>0.39200000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -962,13 +962,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>0.79600000000000004</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C26" s="2">
-        <v>0.26300000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="D26" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -980,13 +980,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.88600000000000001</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C27" s="2">
-        <v>0.29699999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D27" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
